--- a/core/src/test/resources/yo/dbunitcli/application/expect/multidiff/expect/COMPARE_RESULT.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/expect/multidiff/expect/COMPARE_RESULT.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">DIFF_ROWS</t>
   </si>
   <si>
-    <t xml:space="preserve">src\test\resources\yo\dbunitcli\application\src\multidiff\old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src\test\resources\yo\dbunitcli\application\src\multidiff\new</t>
+    <t xml:space="preserve">src\test\resources\yo\dbunitcli\application\src\compare\multidiff\old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src\test\resources\yo\dbunitcli\application\src\compare\multidiff\new</t>
   </si>
   <si>
     <t xml:space="preserve">TABLE_COUNT</t>
